--- a/FinalData.xlsx
+++ b/FinalData.xlsx
@@ -1,87 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fries\OneDrive\Documents\GitHub\Data-Mining-Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C74EC800-9C03-4CA1-AB28-D895775DCD15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="13">
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>queue</t>
-  </si>
-  <si>
-    <t>region</t>
-  </si>
-  <si>
-    <t>dragonSoul</t>
-  </si>
-  <si>
-    <t>firstDragon</t>
-  </si>
-  <si>
-    <t>firstTower</t>
-  </si>
-  <si>
-    <t>firstBlood</t>
-  </si>
-  <si>
-    <t>firstInhibitor</t>
-  </si>
-  <si>
-    <t>Blue</t>
-  </si>
-  <si>
-    <t>CLASSIC</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>cloud</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -96,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -420,165 +420,239 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>queue</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>dragonSoul</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>firstDragon</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>firstTower</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>firstBlood</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>firstInhibitor</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CLASSIC</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>cloud</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CLASSIC</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>cloud</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CLASSIC</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>cloud</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" t="s">
-        <v>8</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CLASSIC</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>cloud</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/FinalData.xlsx
+++ b/FinalData.xlsx
@@ -531,7 +531,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CLASSIC</t>
+          <t>normal_draft_fives</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CLASSIC</t>
+          <t>normal_draft_fives</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CLASSIC</t>
+          <t>ranked_solo_fives</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">

--- a/FinalData.xlsx
+++ b/FinalData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:ET5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,27 +451,732 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>dragonSoul</t>
+          <t>firstDragon</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>firstDragon</t>
+          <t>firstTower</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>firstTower</t>
+          <t>firstBlood</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>firstBlood</t>
+          <t>firstInhibitor</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>firstInhibitor</t>
+          <t>firstBaron</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>firstRiftHerald</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>player0Champ</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>player0Side</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>player0Kills</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>player0Deaths</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>player0Assists</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>player0KDA</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>player0ObjDmg</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>player0GoldPS</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>player0CSPM</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>player0DmgDPS</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>player0DmgTPS</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>player0HealingPS</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>player0VisionScorePM</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>player0SecDead</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>player1Champ</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>player1Side</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>player1Kills</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>player1Deaths</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>player1Assists</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>player1KDA</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>player1ObjDmg</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>player1GoldPS</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>player1CSPM</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>player1DmgDPS</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>player1DmgTPS</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>player1HealingPS</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>player1VisionScorePM</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>player1SecDead</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>player2Champ</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>player2Side</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>player2Kills</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>player2Deaths</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>player2Assists</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>player2KDA</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>player2ObjDmg</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>player2GoldPS</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>player2CSPM</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>player2DmgDPS</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>player2DmgTPS</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>player2HealingPS</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>player2VisionScorePM</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>player2SecDead</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>player3Champ</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>player3Side</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>player3Kills</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>player3Deaths</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>player3Assists</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>player3KDA</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>player3ObjDmg</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>player3GoldPS</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>player3CSPM</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>player3DmgDPS</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>player3DmgTPS</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>player3HealingPS</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>player3VisionScorePM</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>player3SecDead</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>player4Champ</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>player4Side</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>player4Kills</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>player4Deaths</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>player4Assists</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>player4KDA</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>player4ObjDmg</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>player4GoldPS</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>player4CSPM</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>player4DmgDPS</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>player4DmgTPS</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>player4HealingPS</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>player4VisionScorePM</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>player4SecDead</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>player5Champ</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>player5Side</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>player5Kills</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>player5Deaths</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>player5Assists</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>player5KDA</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>player5ObjDmg</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>player5GoldPS</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>player5CSPM</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>player5DmgDPS</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>player5DmgTPS</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>player5HealingPS</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>player5VisionScorePM</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>player5SecDead</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>player6Champ</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>player6Side</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>player6Kills</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>player6Deaths</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>player6Assists</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>player6KDA</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>player6ObjDmg</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>player6GoldPS</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>player6CSPM</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>player6DmgDPS</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>player6DmgTPS</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>player6HealingPS</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>player6VisionScorePM</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>player6SecDead</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>player7Champ</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>player7Side</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>player7Kills</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>player7Deaths</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>player7Assists</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>player7KDA</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>player7ObjDmg</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>player7GoldPS</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>player7CSPM</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>player7DmgDPS</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>player7DmgTPS</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>player7HealingPS</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>player7VisionScorePM</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>player7SecDead</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>player8Champ</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>player8Side</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>player8Kills</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>player8Deaths</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>player8Assists</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>player8KDA</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>player8ObjDmg</t>
+        </is>
+      </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>player8GoldPS</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>player8CSPM</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>player8DmgDPS</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>player8DmgTPS</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>player8HealingPS</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>player8VisionScorePM</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>player8SecDead</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>player9Champ</t>
+        </is>
+      </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
+          <t>player9Side</t>
+        </is>
+      </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>player9Kills</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>player9Deaths</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>player9Assists</t>
+        </is>
+      </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
+          <t>player9KDA</t>
+        </is>
+      </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
+          <t>player9ObjDmg</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>player9GoldPS</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
+          <t>player9CSPM</t>
+        </is>
+      </c>
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>player9DmgDPS</t>
+        </is>
+      </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>player9DmgTPS</t>
+        </is>
+      </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>player9HealingPS</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
+          <t>player9VisionScorePM</t>
+        </is>
+      </c>
+      <c r="ET1" s="1" t="inlineStr">
+        <is>
+          <t>player9SecDead</t>
         </is>
       </c>
     </row>
@@ -486,7 +1191,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CLASSIC</t>
+          <t>normal_draft_fives</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -496,7 +1201,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>cloud</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -518,6 +1223,471 @@
         <is>
           <t>Blue</t>
         </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Shen</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>10</v>
+      </c>
+      <c r="N2" t="n">
+        <v>8</v>
+      </c>
+      <c r="O2" t="n">
+        <v>10</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2436</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5.461</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T2" t="n">
+        <v>50.8596</v>
+      </c>
+      <c r="U2" t="n">
+        <v>27.6516</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="X2" t="n">
+        <v>289</v>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>Nocturne</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="AA2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>44408</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>105.99</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>21.09</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>389</v>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>Talon</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="AO2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>1938</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>69.15000000000001</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>308</v>
+      </c>
+      <c r="BA2" t="inlineStr">
+        <is>
+          <t>Ziggs</t>
+        </is>
+      </c>
+      <c r="BB2" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="BC2" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>100.67</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>200</v>
+      </c>
+      <c r="BO2" t="inlineStr">
+        <is>
+          <t>Nautilus</t>
+        </is>
+      </c>
+      <c r="BP2" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="BQ2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>14</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>19</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>600</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>200.5</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>436</v>
+      </c>
+      <c r="CC2" t="inlineStr">
+        <is>
+          <t>K`Sante</t>
+        </is>
+      </c>
+      <c r="CD2" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="CE2" t="n">
+        <v>3</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>7</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>8</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>9153</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>471</v>
+      </c>
+      <c r="CQ2" t="inlineStr">
+        <is>
+          <t>Gragas</t>
+        </is>
+      </c>
+      <c r="CR2" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="CS2" t="n">
+        <v>10</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>6</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>22</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>1056</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>94.7</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>102</v>
+      </c>
+      <c r="DE2" t="inlineStr">
+        <is>
+          <t>Neeko</t>
+        </is>
+      </c>
+      <c r="DF2" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="DG2" t="n">
+        <v>14</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>5</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>17</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>24126</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>95</v>
+      </c>
+      <c r="DS2" t="inlineStr">
+        <is>
+          <t>Miss Fortune</t>
+        </is>
+      </c>
+      <c r="DT2" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="DU2" t="n">
+        <v>17</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>11</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>8</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>1958</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>95.27200000000001</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>13.73</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>605</v>
+      </c>
+      <c r="EG2" t="inlineStr">
+        <is>
+          <t>Milio</t>
+        </is>
+      </c>
+      <c r="EH2" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="EI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>7</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>32</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>2370</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>374</v>
       </c>
     </row>
     <row r="3">
@@ -541,28 +1711,493 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>cloud</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>Blue</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Shen</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>10</v>
+      </c>
+      <c r="N3" t="n">
+        <v>8</v>
+      </c>
+      <c r="O3" t="n">
+        <v>10</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2436</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5.461777777777778</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T3" t="n">
+        <v>50.85955555555555</v>
+      </c>
+      <c r="U3" t="n">
+        <v>27.65155555555556</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2.140444444444444</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.9066666666666666</v>
+      </c>
+      <c r="X3" t="n">
+        <v>289</v>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>Nocturne</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="AA3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1.181818181818182</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>44408</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>5.685777777777778</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>5.466666666666667</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>105.9911111111111</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>21.08977777777778</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>6.937333333333333</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>1.173333333333333</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>389</v>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>Talon</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="AO3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>1938</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>5.272</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>69.15911111111112</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>12.15644444444444</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0.9093333333333333</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>308</v>
+      </c>
+      <c r="BA3" t="inlineStr">
+        <is>
+          <t>Ziggs</t>
+        </is>
+      </c>
+      <c r="BB3" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="BC3" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>4</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>7750</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>6.756444444444444</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>5.946666666666666</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>80.25022222222222</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>11.08844444444444</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>1.565333333333333</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>123</v>
+      </c>
+      <c r="BO3" t="inlineStr">
+        <is>
+          <t>Nautilus</t>
+        </is>
+      </c>
+      <c r="BP3" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="BQ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>14</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>19</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>1.571428571428571</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>1056</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>1.066666666666667</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>20.85777777777778</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>17.45111111111111</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0.5488888888888889</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>406</v>
+      </c>
+      <c r="CC3" t="inlineStr">
+        <is>
+          <t>K'Sante</t>
+        </is>
+      </c>
+      <c r="CD3" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="CE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>7</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>8</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>1.571428571428571</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>9153</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>77.84355555555555</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>22.40355555555556</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>1.774222222222222</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>0.7733333333333333</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>261</v>
+      </c>
+      <c r="CQ3" t="inlineStr">
+        <is>
+          <t>Gragas</t>
+        </is>
+      </c>
+      <c r="CR3" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="CS3" t="n">
+        <v>10</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>6</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>22</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>5.333333333333333</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>21796</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>6.634666666666667</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>101.6346666666667</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>20.80266666666667</v>
+      </c>
+      <c r="DB3" t="n">
+        <v>9.012444444444444</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>0.7733333333333333</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>243</v>
+      </c>
+      <c r="DE3" t="inlineStr">
+        <is>
+          <t>Neeko</t>
+        </is>
+      </c>
+      <c r="DF3" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="DG3" t="n">
+        <v>14</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>5</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>17</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="DK3" t="n">
+        <v>24126</v>
+      </c>
+      <c r="DL3" t="n">
+        <v>7.862666666666667</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>104.2337777777778</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>14.09777777777778</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>2.526222222222222</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="DR3" t="n">
+        <v>185</v>
+      </c>
+      <c r="DS3" t="inlineStr">
+        <is>
+          <t>Miss Fortune</t>
+        </is>
+      </c>
+      <c r="DT3" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="DU3" t="n">
+        <v>17</v>
+      </c>
+      <c r="DV3" t="n">
+        <v>11</v>
+      </c>
+      <c r="DW3" t="n">
+        <v>8</v>
+      </c>
+      <c r="DX3" t="n">
+        <v>2.272727272727273</v>
+      </c>
+      <c r="DY3" t="n">
+        <v>29148</v>
+      </c>
+      <c r="DZ3" t="n">
+        <v>7.632444444444444</v>
+      </c>
+      <c r="EA3" t="n">
+        <v>5.546666666666667</v>
+      </c>
+      <c r="EB3" t="n">
+        <v>95.27200000000001</v>
+      </c>
+      <c r="EC3" t="n">
+        <v>13.73422222222222</v>
+      </c>
+      <c r="ED3" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="EE3" t="n">
+        <v>0.7466666666666667</v>
+      </c>
+      <c r="EF3" t="n">
+        <v>337</v>
+      </c>
+      <c r="EG3" t="inlineStr">
+        <is>
+          <t>Milio</t>
+        </is>
+      </c>
+      <c r="EH3" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="EI3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ3" t="n">
+        <v>7</v>
+      </c>
+      <c r="EK3" t="n">
+        <v>32</v>
+      </c>
+      <c r="EL3" t="n">
+        <v>4.714285714285714</v>
+      </c>
+      <c r="EM3" t="n">
+        <v>1959</v>
+      </c>
+      <c r="EN3" t="n">
+        <v>4.762666666666667</v>
+      </c>
+      <c r="EO3" t="n">
+        <v>0.9866666666666667</v>
+      </c>
+      <c r="EP3" t="n">
+        <v>15.37377777777778</v>
+      </c>
+      <c r="EQ3" t="n">
+        <v>10.68533333333333</v>
+      </c>
+      <c r="ER3" t="n">
+        <v>9.319555555555555</v>
+      </c>
+      <c r="ES3" t="n">
+        <v>2.346666666666667</v>
+      </c>
+      <c r="ET3" t="n">
+        <v>233</v>
       </c>
     </row>
     <row r="4">
@@ -586,7 +2221,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>cloud</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -596,18 +2231,483 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>Blue</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>Red</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>K'Sante</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3</v>
+      </c>
+      <c r="O4" t="n">
+        <v>5</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2370</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5.377084844089921</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5.264684554024655</v>
+      </c>
+      <c r="T4" t="n">
+        <v>48.07469180565627</v>
+      </c>
+      <c r="U4" t="n">
+        <v>9.614938361131255</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.7672226250906454</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.4786076867295141</v>
+      </c>
+      <c r="X4" t="n">
+        <v>98</v>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>Viego</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="AA4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>26867</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>6.607686729514141</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>5.786802030456853</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>110.1762146482959</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>15.6620739666425</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>8.965192168237854</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.6961566352429296</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>94</v>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>Sylas</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="AO4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>8388</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>6.79550398839739</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>5.569253081943437</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>60.14720812182741</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>10.83393763596809</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>1.87962291515591</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0.8266860043509789</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>65</v>
+      </c>
+      <c r="BA4" t="inlineStr">
+        <is>
+          <t>Caitlyn</t>
+        </is>
+      </c>
+      <c r="BB4" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="BC4" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>15</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>29289</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>8.915881073241479</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>8.092820884699057</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>95.50036258158086</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>4.319071791153009</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>2.770848440899202</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>0.6091370558375634</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO4" t="inlineStr">
+        <is>
+          <t>Morgana</t>
+        </is>
+      </c>
+      <c r="BP4" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="BQ4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>13</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>9064</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>5.672226250906454</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>0.2175489485134155</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>17.04568527918782</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>6.380710659898477</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>1.27773749093546</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>1.82741116751269</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>55</v>
+      </c>
+      <c r="CC4" t="inlineStr">
+        <is>
+          <t>Rumble</t>
+        </is>
+      </c>
+      <c r="CD4" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="CE4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>8</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>3</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>13718</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>5.448875997099347</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>5.699782451051487</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>94.98767222625091</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>20.14068165337201</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>8.40319071791153</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>0.5221174764321972</v>
+      </c>
+      <c r="CP4" t="n">
+        <v>188</v>
+      </c>
+      <c r="CQ4" t="inlineStr">
+        <is>
+          <t>Tristana</t>
+        </is>
+      </c>
+      <c r="CR4" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="CS4" t="n">
+        <v>2</v>
+      </c>
+      <c r="CT4" t="n">
+        <v>6</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>4</v>
+      </c>
+      <c r="CV4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>15382</v>
+      </c>
+      <c r="CX4" t="n">
+        <v>7.76939811457578</v>
+      </c>
+      <c r="CY4" t="n">
+        <v>7.048585931834663</v>
+      </c>
+      <c r="CZ4" t="n">
+        <v>98.6620739666425</v>
+      </c>
+      <c r="DA4" t="n">
+        <v>10.28136330674402</v>
+      </c>
+      <c r="DB4" t="n">
+        <v>1.088469905728789</v>
+      </c>
+      <c r="DC4" t="n">
+        <v>0.3915881073241479</v>
+      </c>
+      <c r="DD4" t="n">
+        <v>192</v>
+      </c>
+      <c r="DE4" t="inlineStr">
+        <is>
+          <t>Fizz</t>
+        </is>
+      </c>
+      <c r="DF4" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="DG4" t="n">
+        <v>8</v>
+      </c>
+      <c r="DH4" t="n">
+        <v>3</v>
+      </c>
+      <c r="DI4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ4" t="n">
+        <v>3</v>
+      </c>
+      <c r="DK4" t="n">
+        <v>4439</v>
+      </c>
+      <c r="DL4" t="n">
+        <v>7.695431472081219</v>
+      </c>
+      <c r="DM4" t="n">
+        <v>6.87454677302393</v>
+      </c>
+      <c r="DN4" t="n">
+        <v>65.42784626540971</v>
+      </c>
+      <c r="DO4" t="n">
+        <v>11.02465554749819</v>
+      </c>
+      <c r="DP4" t="n">
+        <v>1.197969543147208</v>
+      </c>
+      <c r="DQ4" t="n">
+        <v>0.6526468455402465</v>
+      </c>
+      <c r="DR4" t="n">
+        <v>60</v>
+      </c>
+      <c r="DS4" t="inlineStr">
+        <is>
+          <t>Lulu</t>
+        </is>
+      </c>
+      <c r="DT4" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="DU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV4" t="n">
+        <v>4</v>
+      </c>
+      <c r="DW4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="DY4" t="n">
+        <v>648</v>
+      </c>
+      <c r="DZ4" t="n">
+        <v>4.154459753444525</v>
+      </c>
+      <c r="EA4" t="n">
+        <v>3.78535170413343</v>
+      </c>
+      <c r="EB4" t="n">
+        <v>36.03915881073242</v>
+      </c>
+      <c r="EC4" t="n">
+        <v>9.39811457577955</v>
+      </c>
+      <c r="ED4" t="n">
+        <v>0.6076867295141407</v>
+      </c>
+      <c r="EE4" t="n">
+        <v>0.435097897026831</v>
+      </c>
+      <c r="EF4" t="n">
+        <v>57</v>
+      </c>
+      <c r="EG4" t="inlineStr">
+        <is>
+          <t>Yuumi</t>
+        </is>
+      </c>
+      <c r="EH4" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="EI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ4" t="n">
+        <v>3</v>
+      </c>
+      <c r="EK4" t="n">
+        <v>2</v>
+      </c>
+      <c r="EL4" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="EM4" t="n">
+        <v>244</v>
+      </c>
+      <c r="EN4" t="n">
+        <v>3.459753444525018</v>
+      </c>
+      <c r="EO4" t="n">
+        <v>0.2175489485134155</v>
+      </c>
+      <c r="EP4" t="n">
+        <v>5.997099347353155</v>
+      </c>
+      <c r="EQ4" t="n">
+        <v>2.824510514865845</v>
+      </c>
+      <c r="ER4" t="n">
+        <v>2.563451776649746</v>
+      </c>
+      <c r="ES4" t="n">
+        <v>0.6961566352429296</v>
+      </c>
+      <c r="ET4" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="5">
@@ -631,7 +2731,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>cloud</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -641,18 +2741,483 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>Red</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>Blue</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Tryndamere</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>8</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4</v>
+      </c>
+      <c r="O5" t="n">
+        <v>11</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>20292</v>
+      </c>
+      <c r="R5" t="n">
+        <v>7.539629005059022</v>
+      </c>
+      <c r="S5" t="n">
+        <v>8.347386172006745</v>
+      </c>
+      <c r="T5" t="n">
+        <v>138.5961214165261</v>
+      </c>
+      <c r="U5" t="n">
+        <v>21.66863406408094</v>
+      </c>
+      <c r="V5" t="n">
+        <v>11.98946037099494</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.8094435075885329</v>
+      </c>
+      <c r="X5" t="n">
+        <v>190</v>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>Ekko</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="AA5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>3.571428571428572</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>44223</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>9.753794266441821</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>6.930860033726813</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>166.2150084317032</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>21.06323777403036</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>9.569139966273188</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.9612141652613828</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>331</v>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>Galio</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="AO5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>1.833333333333333</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>6886</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>5.268971332209106</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>5.843170320404722</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>82.106239460371</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>15.64839797639123</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>2.927908937605396</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0.8853288364249579</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>236</v>
+      </c>
+      <c r="BA5" t="inlineStr">
+        <is>
+          <t>Lucian</t>
+        </is>
+      </c>
+      <c r="BB5" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="BC5" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>20</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>18042</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>7.631956155143339</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>7.487352445193929</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>131.6935075885329</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>18.1424957841484</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>3.406408094435076</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>0.7588532883642496</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>638</v>
+      </c>
+      <c r="BO5" t="inlineStr">
+        <is>
+          <t>Milio</t>
+        </is>
+      </c>
+      <c r="BP5" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="BQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>6</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>25</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>1514</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>4.155986509274873</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>0.3794266441821248</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>6.913153456998313</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>8.335160202360877</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>4.695615514333896</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>2.301854974704891</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>193</v>
+      </c>
+      <c r="CC5" t="inlineStr">
+        <is>
+          <t>Yone</t>
+        </is>
+      </c>
+      <c r="CD5" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="CE5" t="n">
+        <v>4</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>10</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>7</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>6232</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>5.494940978077572</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>4.907251264755481</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>80.76011804384486</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>15.20699831365936</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>2.547639123102867</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>0.9359190556492412</v>
+      </c>
+      <c r="CP5" t="n">
+        <v>307</v>
+      </c>
+      <c r="CQ5" t="inlineStr">
+        <is>
+          <t>Viego</t>
+        </is>
+      </c>
+      <c r="CR5" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="CS5" t="n">
+        <v>12</v>
+      </c>
+      <c r="CT5" t="n">
+        <v>5</v>
+      </c>
+      <c r="CU5" t="n">
+        <v>12</v>
+      </c>
+      <c r="CV5" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="CW5" t="n">
+        <v>41444</v>
+      </c>
+      <c r="CX5" t="n">
+        <v>7.535834738617201</v>
+      </c>
+      <c r="CY5" t="n">
+        <v>5.691399662731872</v>
+      </c>
+      <c r="CZ5" t="n">
+        <v>119.2723440134907</v>
+      </c>
+      <c r="DA5" t="n">
+        <v>19.70193929173693</v>
+      </c>
+      <c r="DB5" t="n">
+        <v>9.844856661045531</v>
+      </c>
+      <c r="DC5" t="n">
+        <v>1.062394603709949</v>
+      </c>
+      <c r="DD5" t="n">
+        <v>142</v>
+      </c>
+      <c r="DE5" t="inlineStr">
+        <is>
+          <t>Katarina</t>
+        </is>
+      </c>
+      <c r="DF5" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="DG5" t="n">
+        <v>7</v>
+      </c>
+      <c r="DH5" t="n">
+        <v>8</v>
+      </c>
+      <c r="DI5" t="n">
+        <v>11</v>
+      </c>
+      <c r="DJ5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="DK5" t="n">
+        <v>4600</v>
+      </c>
+      <c r="DL5" t="n">
+        <v>6.177908937605396</v>
+      </c>
+      <c r="DM5" t="n">
+        <v>5.716694772344014</v>
+      </c>
+      <c r="DN5" t="n">
+        <v>80.79342327150084</v>
+      </c>
+      <c r="DO5" t="n">
+        <v>19.77023608768971</v>
+      </c>
+      <c r="DP5" t="n">
+        <v>4.408094435075886</v>
+      </c>
+      <c r="DQ5" t="n">
+        <v>0.4553119730185498</v>
+      </c>
+      <c r="DR5" t="n">
+        <v>314</v>
+      </c>
+      <c r="DS5" t="inlineStr">
+        <is>
+          <t>Kai'Sa</t>
+        </is>
+      </c>
+      <c r="DT5" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="DU5" t="n">
+        <v>13</v>
+      </c>
+      <c r="DV5" t="n">
+        <v>10</v>
+      </c>
+      <c r="DW5" t="n">
+        <v>6</v>
+      </c>
+      <c r="DX5" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="DY5" t="n">
+        <v>35583</v>
+      </c>
+      <c r="DZ5" t="n">
+        <v>8.576728499156829</v>
+      </c>
+      <c r="EA5" t="n">
+        <v>7.057335581787521</v>
+      </c>
+      <c r="EB5" t="n">
+        <v>112.283305227656</v>
+      </c>
+      <c r="EC5" t="n">
+        <v>16.61888701517707</v>
+      </c>
+      <c r="ED5" t="n">
+        <v>5.63575042158516</v>
+      </c>
+      <c r="EE5" t="n">
+        <v>1.593591905564924</v>
+      </c>
+      <c r="EF5" t="n">
+        <v>344</v>
+      </c>
+      <c r="EG5" t="inlineStr">
+        <is>
+          <t>Zilean</t>
+        </is>
+      </c>
+      <c r="EH5" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="EI5" t="n">
+        <v>7</v>
+      </c>
+      <c r="EJ5" t="n">
+        <v>6</v>
+      </c>
+      <c r="EK5" t="n">
+        <v>19</v>
+      </c>
+      <c r="EL5" t="n">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="EM5" t="n">
+        <v>10608</v>
+      </c>
+      <c r="EN5" t="n">
+        <v>5.756745362563238</v>
+      </c>
+      <c r="EO5" t="n">
+        <v>1.998313659359191</v>
+      </c>
+      <c r="EP5" t="n">
+        <v>42.26433389544688</v>
+      </c>
+      <c r="EQ5" t="n">
+        <v>11.80480607082631</v>
+      </c>
+      <c r="ER5" t="n">
+        <v>6.056070826306914</v>
+      </c>
+      <c r="ES5" t="n">
+        <v>2.504215851602024</v>
+      </c>
+      <c r="ET5" t="n">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
